--- a/evaluacion.xlsx
+++ b/evaluacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CondicionesGenerales" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="148">
   <si>
     <t xml:space="preserve">PLAN EVALUACIÓN RESULTADOS APRENDIZAJE</t>
   </si>
@@ -200,30 +200,66 @@
     <t xml:space="preserve">Portrait</t>
   </si>
   <si>
+    <t xml:space="preserve">Registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Español e Inglés</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">307 / 312</t>
+  </si>
+  <si>
     <t xml:space="preserve">Actividad 1</t>
   </si>
   <si>
     <t xml:space="preserve">Actividad 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Actividad 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Camiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camiones</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lista de elementos</t>
   </si>
   <si>
     <t xml:space="preserve">Con un RecyclerView. Al pulsar en un elemento debe hacer algo</t>
   </si>
   <si>
+    <t xml:space="preserve">Camiones, Empleados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camiones,empleados</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menú aplicación:</t>
   </si>
   <si>
+    <t xml:space="preserve">menu/top_menu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Opción 1: Ventana de preferencias (utilización práctica)</t>
   </si>
   <si>
+    <t xml:space="preserve">Dejar pulsado imagen del inicio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Opción 2: Acceso a página web</t>
   </si>
   <si>
@@ -242,6 +278,15 @@
     <t xml:space="preserve">Esta opción te lleva al envío de mensaje de texto</t>
   </si>
   <si>
+    <t xml:space="preserve">Registro,Inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registro,inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu y inicio</t>
+  </si>
+  <si>
     <t xml:space="preserve">CE 2.2</t>
   </si>
   <si>
@@ -252,6 +297,9 @@
   </si>
   <si>
     <t xml:space="preserve">Toda la aplicación debe estar con Material Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">themes</t>
   </si>
   <si>
     <t xml:space="preserve">CE 2.9 + 
@@ -269,6 +317,15 @@
 Borrado</t>
   </si>
   <si>
+    <t xml:space="preserve">Empleados, Adaptador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empleados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptador: 93</t>
+  </si>
+  <si>
     <t xml:space="preserve">CE 2.11</t>
   </si>
   <si>
@@ -293,12 +350,27 @@
     <t xml:space="preserve">Documentar el código</t>
   </si>
   <si>
+    <t xml:space="preserve">Todas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portrait y landscape</t>
   </si>
   <si>
+    <t xml:space="preserve">En clase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">detalle,registro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Listener pulsación larga sobre control</t>
   </si>
   <si>
+    <t xml:space="preserve">Adaptador</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menú contextual sobre una view</t>
   </si>
   <si>
@@ -317,6 +389,12 @@
     <t xml:space="preserve">(alguna utilidad de rol de usuarios)</t>
   </si>
   <si>
+    <t xml:space="preserve">Inicio,InicioEmpleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicio,inicio_empleado</t>
+  </si>
+  <si>
     <t xml:space="preserve">CE 2.8</t>
   </si>
   <si>
@@ -329,6 +407,9 @@
     <t xml:space="preserve">Inserción</t>
   </si>
   <si>
+    <t xml:space="preserve">Conexión</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modificación</t>
   </si>
   <si>
@@ -344,7 +425,13 @@
     <t xml:space="preserve">Alertas y notificaciones:</t>
   </si>
   <si>
+    <t xml:space="preserve">Registro de usuario</t>
+  </si>
+  <si>
     <t xml:space="preserve">Creación de una notificación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificación</t>
   </si>
   <si>
     <t xml:space="preserve">Realización de acción al pulsar sobre la notificación</t>
@@ -418,7 +505,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,8 +587,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +661,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.7999"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
@@ -773,28 +874,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -810,11 +915,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,7 +935,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,247 +975,267 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1483,300 +1608,300 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="10"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="10"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="10"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="10"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="10"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="25" t="n">
+      <c r="B20" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="25" t="n">
+      <c r="B21" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1796,105 +1921,105 @@
   </sheetPr>
   <dimension ref="C1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="27.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="96.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="27.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="96.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="F2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="F3" s="32" t="n">
+      <c r="D3" s="34"/>
+      <c r="F3" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="34" t="str">
+      <c r="G3" s="35" t="str">
         <f aca="false">'R2 5'!C2</f>
-        <v>No conseguido</v>
-      </c>
-      <c r="H3" s="35" t="n">
+        <v>Conseguido</v>
+      </c>
+      <c r="H3" s="36" t="n">
         <f aca="false">'R2 5'!C1</f>
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="33"/>
-      <c r="F4" s="36" t="s">
+      <c r="D4" s="34"/>
+      <c r="F4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35" t="n">
+      <c r="G4" s="35"/>
+      <c r="H4" s="36" t="n">
         <f aca="false">('R2a+1'!C1)+('R2b+1'!C1)+('R2c+1'!C1)+('R2d+1'!C1)+('R2e+1 Investigación'!C1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="33"/>
-      <c r="G6" s="32" t="s">
+      <c r="D6" s="34"/>
+      <c r="G6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="37" t="n">
+      <c r="H6" s="38" t="n">
         <f aca="false">IF(H3&gt;=5,H3+H4,H3)</f>
-        <v>4.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="33"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="33"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="33"/>
-      <c r="G9" s="30"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="33"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="41" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1910,7 +2035,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{79639B20-521F-4FB9-AA4F-FDD1E9E7AEC2}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{92CF2CE9-7BF9-49CE-94C5-57002842C1FE}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -1935,588 +2060,660 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="15.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="55.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="42" t="n">
+      <c r="C1" s="43" t="n">
         <f aca="false">SUM(L:L)</f>
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="34" t="str">
+      <c r="C2" s="35" t="str">
         <f aca="false">IF(COUNTIF(I:I,CondicionesGenerales!C20)&gt;0,CondicionesGenerales!C20,CondicionesGenerales!C21)</f>
-        <v>No conseguido</v>
+        <v>Conseguido</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="43" t="n">
         <f aca="false">SUM(K:K)</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="51" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="53" t="n">
+      <c r="J6" s="54" t="n">
         <f aca="false">(IF(I6=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K6" s="34" t="n">
+      <c r="K6" s="35" t="n">
         <v>0.1</v>
       </c>
-      <c r="L6" s="34" t="n">
+      <c r="L6" s="35" t="n">
         <f aca="false">J6*K6</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="51" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="53" t="n">
+      <c r="J7" s="54" t="n">
         <f aca="false">(IF(I7=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K7" s="34" t="n">
+      <c r="K7" s="35" t="n">
         <v>0.05</v>
       </c>
-      <c r="L7" s="34" t="n">
+      <c r="L7" s="35" t="n">
         <f aca="false">J7*K7</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="57" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="51" t="s">
+      <c r="F8" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="53" t="n">
+      <c r="J8" s="54" t="n">
         <f aca="false">(IF(I8=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K8" s="34" t="n">
+      <c r="K8" s="35" t="n">
         <v>0.25</v>
       </c>
-      <c r="L8" s="34" t="n">
+      <c r="L8" s="35" t="n">
         <f aca="false">J8*K8</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="51" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="53" t="n">
+      <c r="J9" s="54" t="n">
         <f aca="false">(IF(I9=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K9" s="34" t="n">
+      <c r="K9" s="35" t="n">
         <v>0.3</v>
       </c>
-      <c r="L9" s="34" t="n">
+      <c r="L9" s="35" t="n">
         <f aca="false">J9*K9</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="51" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="53" t="n">
+      <c r="J10" s="54" t="n">
         <f aca="false">(IF(I10=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K10" s="34" t="n">
+      <c r="K10" s="35" t="n">
         <v>0.3</v>
       </c>
-      <c r="L10" s="34" t="n">
+      <c r="L10" s="35" t="n">
         <f aca="false">J10*K10</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="51" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="53" t="n">
+      <c r="J11" s="54" t="n">
         <f aca="false">(IF(I11=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K11" s="34" t="n">
+      <c r="K11" s="35" t="n">
         <v>0.3</v>
       </c>
-      <c r="L11" s="34" t="n">
+      <c r="L11" s="35" t="n">
         <f aca="false">J11*K11</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="51" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="53" t="n">
+      <c r="J12" s="54" t="n">
         <f aca="false">(IF(I12=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K12" s="34" t="n">
+      <c r="K12" s="35" t="n">
         <v>0.5</v>
       </c>
-      <c r="L12" s="34" t="n">
+      <c r="L12" s="35" t="n">
         <f aca="false">J12*K12</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="51" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34" t="n">
+        <v>178</v>
+      </c>
+      <c r="H13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="53" t="n">
+      <c r="J13" s="54" t="n">
         <f aca="false">(IF(I13=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K13" s="34" t="n">
+      <c r="K13" s="35" t="n">
         <v>0.1</v>
       </c>
-      <c r="L13" s="34" t="n">
+      <c r="L13" s="35" t="n">
         <f aca="false">J13*K13</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="51" t="s">
+    <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="63" t="n">
+        <v>303</v>
+      </c>
+      <c r="H14" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="53" t="n">
+      <c r="I14" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="54" t="n">
         <f aca="false">(IF(I14=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="35" t="n">
         <v>0.45</v>
       </c>
-      <c r="L14" s="34" t="n">
+      <c r="L14" s="35" t="n">
         <f aca="false">J14*K14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M14" s="1" t="n">
         <f aca="false">K14+K15+K16+K17</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="51" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="34" t="n">
+        <v>335</v>
+      </c>
+      <c r="H15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="53" t="n">
+      <c r="J15" s="54" t="n">
         <f aca="false">(IF(I15=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K15" s="34" t="n">
+      <c r="K15" s="35" t="n">
         <v>0.25</v>
       </c>
-      <c r="L15" s="34" t="n">
+      <c r="L15" s="35" t="n">
         <f aca="false">J15*K15</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="51" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="34" t="n">
+        <v>318</v>
+      </c>
+      <c r="H16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="53" t="n">
+      <c r="I16" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="54" t="n">
         <f aca="false">(IF(I16=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="35" t="n">
         <v>0.25</v>
       </c>
-      <c r="L16" s="34" t="n">
+      <c r="L16" s="35" t="n">
         <f aca="false">J16*K16</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="51" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="53" t="n">
+      <c r="J17" s="54" t="n">
         <f aca="false">(IF(I17=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K17" s="34" t="n">
+      <c r="K17" s="35" t="n">
         <v>0.25</v>
       </c>
-      <c r="L17" s="34" t="n">
+      <c r="L17" s="35" t="n">
         <f aca="false">J17*K17</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="53.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="51" t="s">
+      <c r="A18" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="53" t="n">
+      <c r="J18" s="54" t="n">
         <f aca="false">(IF(I18=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K18" s="34" t="n">
+      <c r="K18" s="35" t="n">
         <v>0.5</v>
       </c>
-      <c r="L18" s="34" t="n">
+      <c r="L18" s="35" t="n">
         <f aca="false">J18*K18</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="51" t="s">
+      <c r="A19" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="53" t="n">
+      <c r="J19" s="54" t="n">
         <f aca="false">(IF(I19=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K19" s="34" t="n">
+      <c r="K19" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="34" t="n">
+      <c r="L19" s="35" t="n">
         <f aca="false">J19*K19</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="51" t="s">
+      <c r="A20" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="53" t="n">
+      <c r="J20" s="54" t="n">
         <f aca="false">(IF(I20=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K20" s="34" t="n">
+      <c r="K20" s="35" t="n">
         <v>0.2</v>
       </c>
-      <c r="L20" s="34" t="n">
+      <c r="L20" s="35" t="n">
         <f aca="false">J20*K20</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="51" t="s">
+      <c r="A21" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="53" t="n">
+      <c r="J21" s="54" t="n">
         <f aca="false">(IF(I21=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K21" s="34" t="n">
+      <c r="K21" s="35" t="n">
         <v>0.2</v>
       </c>
-      <c r="L21" s="34" t="n">
+      <c r="L21" s="35" t="n">
         <f aca="false">J21*K21</f>
         <v>0.2</v>
       </c>
@@ -2549,7 +2746,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{1D77FCF4-D879-44F4-87FC-CB584C125890}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{66E8C02D-E4A0-467D-8CD0-1776C3C26F93}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -2562,7 +2759,7 @@
           <xm:sqref>I6:I21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{BCE04F6F-C4DC-4730-96E8-997AE0272B8D}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{DBB2DC32-582E-4DF0-91EE-24961B11BD38}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -2587,182 +2784,200 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="13.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="42" t="n">
+      <c r="C1" s="43" t="n">
         <f aca="false">SUM(L:L)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="34" t="str">
+      <c r="C2" s="35" t="str">
         <f aca="false">IF(COUNTIF(I:I,CondicionesGenerales!C20)&gt;0,CondicionesGenerales!C20,CondicionesGenerales!C21)</f>
-        <v>No conseguido</v>
+        <v>Conseguido</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="43" t="n">
         <f aca="false">SUM(K:K)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="61" t="s">
+      <c r="A6" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="51" t="s">
+      <c r="B6" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="65" t="n">
+      <c r="I6" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="69" t="n">
         <f aca="false">(IF(I6=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="65" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="65" t="n">
+      <c r="K6" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="69" t="n">
         <f aca="false">J6*K6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="51" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="71" t="n">
+        <v>99</v>
+      </c>
+      <c r="H8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="51" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="73" t="n">
+        <v>72</v>
+      </c>
+      <c r="H9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2797,7 +3012,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{1E989C76-E027-42D1-A030-1BC03597BDAC}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{DB2023A6-A0D6-414F-B5FE-A76358C33010}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -2822,202 +3037,226 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="13.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="42" t="n">
+      <c r="C1" s="43" t="n">
         <f aca="false">SUM(L:L)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="34" t="str">
+      <c r="C2" s="35" t="str">
         <f aca="false">IF(COUNTIF(I:I,CondicionesGenerales!C20)&gt;0,CondicionesGenerales!C20,CondicionesGenerales!C21)</f>
         <v>Conseguido</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="43" t="n">
         <f aca="false">SUM(K:K)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="64" t="s">
+      <c r="A6" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="65" t="n">
+      <c r="J6" s="69" t="n">
         <f aca="false">(IF(I6=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>1</v>
       </c>
-      <c r="K6" s="65" t="n">
+      <c r="K6" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="65" t="n">
+      <c r="L6" s="69" t="n">
         <f aca="false">J6*K6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="51" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="71" t="n">
+        <v>84</v>
+      </c>
+      <c r="H7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="51" t="s">
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="67" t="n">
+        <v>159</v>
+      </c>
+      <c r="H8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="51" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="71" t="n">
+        <v>236</v>
+      </c>
+      <c r="H9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="51" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3054,7 +3293,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{C15BF870-E3B4-4EC1-AD85-9C7F70401494}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{69C11338-BFE0-4E5E-B9A6-BACBB4F257C2}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3067,7 +3306,7 @@
           <xm:sqref>C2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{9A76E79D-B045-4BEF-8A84-341ABCFC1010}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{C33D52C8-10B0-4CAE-82F0-A441128B8FB2}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3092,220 +3331,250 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="13.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="42" t="n">
+      <c r="C1" s="43" t="n">
         <f aca="false">SUM(L:L)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="34" t="str">
+      <c r="C2" s="35" t="str">
         <f aca="false">IF(COUNTIF(I:I,CondicionesGenerales!C20)&gt;0,CondicionesGenerales!C20,CondicionesGenerales!C21)</f>
-        <v>No conseguido</v>
+        <v>Conseguido</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="43" t="n">
         <f aca="false">SUM(K:K)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="65" t="n">
+      <c r="A6" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="69" t="n">
         <f aca="false">(IF(I6=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="65" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="65" t="n">
+      <c r="K6" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="69" t="n">
         <f aca="false">J6*K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="71" t="n">
+        <v>43</v>
+      </c>
+      <c r="H7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="51" t="s">
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="71" t="n">
+        <v>82</v>
+      </c>
+      <c r="H8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="51" t="s">
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="71" t="n">
+        <v>64</v>
+      </c>
+      <c r="H9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="51" t="s">
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="71" t="n">
+        <v>121</v>
+      </c>
+      <c r="H10" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="51" t="s">
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="73" t="n">
+        <v>101</v>
+      </c>
+      <c r="H11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3340,7 +3609,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{8E63BDEE-3C51-44B0-AA41-B03794D9E02D}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{D497E1BF-A84E-4DAE-B619-67368FAFDB19}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3353,7 +3622,7 @@
           <xm:sqref>C2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{6E5E7C36-D8C5-4A78-B9F0-F3C0A7DA8956}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{C6A0E270-9E35-44E5-B732-7C76744AE4F1}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3378,184 +3647,204 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="13.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="42" t="n">
+      <c r="C1" s="43" t="n">
         <f aca="false">SUM(L:L)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="34" t="str">
+      <c r="C2" s="35" t="str">
         <f aca="false">IF(COUNTIF(I:I,CondicionesGenerales!C20)&gt;0,CondicionesGenerales!C20,CondicionesGenerales!C21)</f>
-        <v>No conseguido</v>
+        <v>Conseguido</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="43" t="n">
         <f aca="false">SUM(K:K)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="65" t="n">
+      <c r="A6" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="69" t="n">
         <f aca="false">(IF(I6=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="65" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="65" t="n">
+      <c r="K6" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="69" t="n">
         <f aca="false">J6*K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="71" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-    </row>
-    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="51" t="s">
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+    </row>
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="71" t="n">
+        <v>93</v>
+      </c>
+      <c r="H8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-    </row>
-    <row r="9" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="51" t="s">
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="73" t="n">
+        <v>64</v>
+      </c>
+      <c r="H9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3590,7 +3879,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{A22D3182-FC64-47A2-B5F5-C865602B7AF5}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{B12F3746-8CD7-4D8D-9D22-68D04DB7DFD7}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3603,7 +3892,7 @@
           <xm:sqref>C2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{C0F6377B-A023-4635-8853-104CECA04D88}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{5ECF31FE-DFFF-4A32-96BA-CB1B60F6FC69}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3628,504 +3917,504 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="13.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="42" t="n">
+      <c r="C1" s="43" t="n">
         <f aca="false">MAX(L:L)</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="34" t="str">
+      <c r="C2" s="35" t="str">
         <f aca="false">IF(COUNTIF(I:I,CondicionesGenerales!C20)&gt;0,CondicionesGenerales!C20,CondicionesGenerales!C21)</f>
         <v>No conseguido</v>
       </c>
-      <c r="E2" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="E2" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="43" t="n">
         <f aca="false">MAX(K:K)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="51" t="s">
+      <c r="A6" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="65" t="n">
+      <c r="J6" s="69" t="n">
         <f aca="false">(IF(I6=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="65" t="n">
+      <c r="K6" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="65" t="n">
+      <c r="L6" s="69" t="n">
         <f aca="false">J6*K6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="80" t="s">
-        <v>107</v>
+      <c r="M6" s="86" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="80"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="86"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="80"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="86"/>
     </row>
     <row r="9" customFormat="false" ht="103.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="80"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="51" t="s">
+      <c r="A11" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="65" t="n">
+      <c r="J11" s="69" t="n">
         <f aca="false">(IF(I11=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="65" t="n">
+      <c r="K11" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="65" t="n">
+      <c r="L11" s="69" t="n">
         <f aca="false">J11*K11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="80" t="s">
-        <v>109</v>
+      <c r="M11" s="86" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="80"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="86"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="80"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="86"/>
     </row>
     <row r="14" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="80"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="86"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="51" t="s">
+      <c r="A16" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="64" t="s">
+      <c r="I16" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="65" t="n">
+      <c r="J16" s="69" t="n">
         <f aca="false">(IF(I16=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>0</v>
       </c>
-      <c r="K16" s="65" t="n">
+      <c r="K16" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="65" t="n">
+      <c r="L16" s="69" t="n">
         <f aca="false">J16*K16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="80" t="s">
-        <v>113</v>
+      <c r="M16" s="86" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="80"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="86"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="80"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="86"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="80"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="86"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="51" t="s">
+      <c r="A21" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="65" t="n">
+      <c r="J21" s="69" t="n">
         <f aca="false">(IF(I21=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>0</v>
       </c>
-      <c r="K21" s="65" t="n">
+      <c r="K21" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="65" t="n">
+      <c r="L21" s="69" t="n">
         <f aca="false">J21*K21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="80" t="s">
-        <v>117</v>
+      <c r="M21" s="86" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="80"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="86"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="80"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="86"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="80"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="86"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="51" t="s">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="64" t="s">
+      <c r="I26" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="65" t="n">
+      <c r="J26" s="69" t="n">
         <f aca="false">(IF(I26=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>0</v>
       </c>
-      <c r="K26" s="65" t="n">
+      <c r="K26" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="L26" s="65" t="n">
+      <c r="L26" s="69" t="n">
         <f aca="false">J26*K26</f>
         <v>0</v>
       </c>
-      <c r="M26" s="80" t="s">
-        <v>118</v>
+      <c r="M26" s="86" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="80"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="86"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="80"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="86"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="80"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -4198,7 +4487,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{FEA49781-88AC-4B3D-B378-47D32E448071}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{15C0393C-5DE1-4F1C-998B-BC8FDDB04F17}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4211,7 +4500,7 @@
           <xm:sqref>C2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{FB2D2CF3-60DA-455F-BD4F-38DCA8C62862}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{C2A8F02B-B1E8-4B94-8913-E6B24A9ABC99}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4224,7 +4513,7 @@
           <xm:sqref>I6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{37929686-8CD0-4524-81B3-11C05E971D40}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{45E729CD-5336-4C2F-8E2D-D930A6747BA0}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4237,7 +4526,7 @@
           <xm:sqref>I11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{83E1E7A6-F64A-43D2-A1C1-6B71FF5C18C3}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{609EA862-C3DD-4772-9897-23D575E86090}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4250,7 +4539,7 @@
           <xm:sqref>I16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{A0B722FD-F31C-4888-BE63-AB408AAF9F2E}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{7F3A382C-B9EE-4FE8-8251-1F396392B136}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4263,7 +4552,7 @@
           <xm:sqref>I21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{6E28F0A2-C4DD-4DC5-AEC0-545AE8B05BFC}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{F044FD39-D175-438F-8468-AED358E1A51C}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
